--- a/Dev/MoClo Golden Gate calculator.xlsx
+++ b/Dev/MoClo Golden Gate calculator.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\megam\OneDrive\Desktop\MoCloScript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\megam\OneDrive\Desktop\MoCloScript\Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0954AD82-47FE-4838-8BA8-100392AFD3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F121B3A9-EE15-4A81-966E-61C8167FC396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MoClo Golden Gate calculator" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="65">
   <si>
     <t>Sequence</t>
   </si>
@@ -248,12 +249,21 @@
   <si>
     <t>Needed con g/L</t>
   </si>
+  <si>
+    <t>Concentration (ng/ul)</t>
+  </si>
+  <si>
+    <t>Fragment Bases</t>
+  </si>
+  <si>
+    <t>Volume (ul) - Should be &gt;1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -347,6 +357,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -415,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -449,6 +489,27 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -845,16 +906,16 @@
         <v>50</v>
       </c>
       <c r="N3" s="3">
-        <f t="shared" ref="N3:N6" si="2">(650*H3*M3*(10^-6))</f>
-        <v>23.0425</v>
+        <f>(650*D2*C2*(10^-6))</f>
+        <v>0.52</v>
       </c>
       <c r="O3" s="3">
         <f t="shared" si="0"/>
-        <v>77.057500000000005</v>
+        <v>1.7389562764456983</v>
       </c>
       <c r="P3" s="3">
-        <f t="shared" ref="P3:P7" si="3">O3/C3*D3</f>
-        <v>1.3947058823529412</v>
+        <f t="shared" ref="P3:P7" si="2">O3/C3*D3</f>
+        <v>3.14743217456235E-2</v>
       </c>
       <c r="Q3" s="3">
         <f t="shared" si="1"/>
@@ -902,7 +963,7 @@
         <v>50</v>
       </c>
       <c r="N4" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N3:N6" si="3">(650*H4*M4*(10^-6))</f>
         <v>3.2174999999999998</v>
       </c>
       <c r="O4" s="3">
@@ -910,7 +971,7 @@
         <v>57.232500000000002</v>
       </c>
       <c r="P4" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.8616250000000001</v>
       </c>
       <c r="Q4" s="3">
@@ -956,7 +1017,7 @@
         <v>50</v>
       </c>
       <c r="N5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.83</v>
       </c>
       <c r="O5" s="3">
@@ -964,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1006,7 +1067,7 @@
         <v>50</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40.462499999999999</v>
       </c>
       <c r="O6" s="3">
@@ -1014,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1064,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1116,7 +1177,7 @@
       </c>
       <c r="P9" s="6">
         <f>SUM(P1:P8)</f>
-        <v>4.3509285835023661</v>
+        <v>2.9876970228950488</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
@@ -1126,7 +1187,7 @@
       <c r="O10" s="8"/>
       <c r="P10" s="9">
         <f>P13-P12-P11-P9</f>
-        <v>4.1490714164976339</v>
+        <v>5.5123029771049517</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
@@ -2460,8 +2521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8016A14-58B8-4560-B68F-79BF98740172}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2656,4 +2717,743 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC871C7-083C-4DCA-A917-F756E31F1582}">
+  <dimension ref="A1:I100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="21.75" style="20" customWidth="1"/>
+    <col min="2" max="2" width="19" style="20" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="15.1875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="12.8125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="23.0625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="24.5625" style="20" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A2" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="25">
+        <v>16</v>
+      </c>
+      <c r="C2" s="25">
+        <v>25</v>
+      </c>
+      <c r="D2" s="25">
+        <v>2262</v>
+      </c>
+      <c r="E2" s="25">
+        <v>3292</v>
+      </c>
+      <c r="F2" s="23">
+        <f>(650*C2*D2*(10^-6))</f>
+        <v>36.7575</v>
+      </c>
+      <c r="G2" s="23">
+        <f>F2*E2/D2</f>
+        <v>53.495000000000005</v>
+      </c>
+      <c r="H2" s="25">
+        <v>1</v>
+      </c>
+      <c r="I2" s="23">
+        <f>G2/B2*H2</f>
+        <v>3.3434375000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="25">
+        <v>30</v>
+      </c>
+      <c r="C3" s="25">
+        <v>50</v>
+      </c>
+      <c r="D3" s="25">
+        <v>709</v>
+      </c>
+      <c r="E3" s="25">
+        <v>2371</v>
+      </c>
+      <c r="F3" s="23">
+        <f t="shared" ref="F3:F66" si="0">(650*C3*D3*(10^-6))</f>
+        <v>23.0425</v>
+      </c>
+      <c r="G3" s="23">
+        <f t="shared" ref="G3:G66" si="1">F3*E3/D3</f>
+        <v>77.057500000000005</v>
+      </c>
+      <c r="H3" s="25">
+        <v>1</v>
+      </c>
+      <c r="I3" s="23">
+        <f t="shared" ref="I3:I66" si="2">G3/B3*H3</f>
+        <v>2.5685833333333337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A4" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="25">
+        <v>20</v>
+      </c>
+      <c r="C4" s="25">
+        <v>50</v>
+      </c>
+      <c r="D4" s="25">
+        <v>99</v>
+      </c>
+      <c r="E4" s="25">
+        <v>1761</v>
+      </c>
+      <c r="F4" s="23">
+        <f t="shared" si="0"/>
+        <v>3.2174999999999998</v>
+      </c>
+      <c r="G4" s="23">
+        <f t="shared" si="1"/>
+        <v>57.232500000000002</v>
+      </c>
+      <c r="H4" s="25">
+        <v>1</v>
+      </c>
+      <c r="I4" s="23">
+        <f t="shared" si="2"/>
+        <v>2.8616250000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="25">
+        <v>250</v>
+      </c>
+      <c r="C5" s="25">
+        <v>50</v>
+      </c>
+      <c r="D5" s="25">
+        <v>1164</v>
+      </c>
+      <c r="E5" s="25">
+        <v>2754</v>
+      </c>
+      <c r="F5" s="23">
+        <f t="shared" si="0"/>
+        <v>37.83</v>
+      </c>
+      <c r="G5" s="23">
+        <f t="shared" si="1"/>
+        <v>89.504999999999995</v>
+      </c>
+      <c r="H5" s="25">
+        <v>4</v>
+      </c>
+      <c r="I5" s="23">
+        <f t="shared" si="2"/>
+        <v>1.43208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A6" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="25">
+        <v>80</v>
+      </c>
+      <c r="C6" s="25">
+        <v>50</v>
+      </c>
+      <c r="D6" s="25">
+        <v>1245</v>
+      </c>
+      <c r="E6" s="25">
+        <v>2957</v>
+      </c>
+      <c r="F6" s="23">
+        <f t="shared" si="0"/>
+        <v>40.462499999999999</v>
+      </c>
+      <c r="G6" s="23">
+        <f t="shared" si="1"/>
+        <v>96.102500000000006</v>
+      </c>
+      <c r="H6" s="25">
+        <v>1</v>
+      </c>
+      <c r="I6" s="23">
+        <f t="shared" si="2"/>
+        <v>1.2012812500000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A7" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="25">
+        <v>5</v>
+      </c>
+      <c r="C7" s="25">
+        <v>50</v>
+      </c>
+      <c r="D7" s="25">
+        <v>411</v>
+      </c>
+      <c r="E7" s="25">
+        <v>3102</v>
+      </c>
+      <c r="F7" s="23">
+        <f t="shared" si="0"/>
+        <v>13.3575</v>
+      </c>
+      <c r="G7" s="23">
+        <f t="shared" si="1"/>
+        <v>100.815</v>
+      </c>
+      <c r="H7" s="25">
+        <v>1</v>
+      </c>
+      <c r="I7" s="23">
+        <f t="shared" si="2"/>
+        <v>20.163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A8" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="25">
+        <v>100</v>
+      </c>
+      <c r="C8" s="25">
+        <v>50</v>
+      </c>
+      <c r="D8" s="25">
+        <v>2247</v>
+      </c>
+      <c r="E8" s="25">
+        <v>2846</v>
+      </c>
+      <c r="F8" s="23">
+        <f t="shared" si="0"/>
+        <v>73.027500000000003</v>
+      </c>
+      <c r="G8" s="23">
+        <f t="shared" si="1"/>
+        <v>92.495000000000005</v>
+      </c>
+      <c r="H8" s="25">
+        <v>1</v>
+      </c>
+      <c r="I8" s="23">
+        <f t="shared" si="2"/>
+        <v>0.92495000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="I9" s="23"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="I10" s="23"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="I11" s="23"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="I12" s="23"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="I13" s="23"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="I14" s="23"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="I15" s="23"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="I17" s="23"/>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="I20" s="23"/>
+    </row>
+    <row r="21" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="I21" s="23"/>
+    </row>
+    <row r="22" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="I22" s="23"/>
+    </row>
+    <row r="23" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="I23" s="23"/>
+    </row>
+    <row r="24" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="I25" s="23"/>
+    </row>
+    <row r="26" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="I26" s="23"/>
+    </row>
+    <row r="27" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="I27" s="23"/>
+    </row>
+    <row r="28" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="I28" s="23"/>
+    </row>
+    <row r="29" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="I29" s="23"/>
+    </row>
+    <row r="30" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="I30" s="23"/>
+    </row>
+    <row r="31" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="I31" s="23"/>
+    </row>
+    <row r="32" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="I32" s="23"/>
+    </row>
+    <row r="33" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="I33" s="23"/>
+    </row>
+    <row r="34" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="I34" s="23"/>
+    </row>
+    <row r="35" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="I35" s="23"/>
+    </row>
+    <row r="36" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="I36" s="23"/>
+    </row>
+    <row r="37" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="I37" s="23"/>
+    </row>
+    <row r="38" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="I38" s="23"/>
+    </row>
+    <row r="39" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="I39" s="23"/>
+    </row>
+    <row r="40" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="I40" s="23"/>
+    </row>
+    <row r="41" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="I41" s="23"/>
+    </row>
+    <row r="42" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="I42" s="23"/>
+    </row>
+    <row r="43" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="I43" s="23"/>
+    </row>
+    <row r="44" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="I44" s="23"/>
+    </row>
+    <row r="45" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="I45" s="23"/>
+    </row>
+    <row r="46" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="I46" s="23"/>
+    </row>
+    <row r="47" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="I47" s="23"/>
+    </row>
+    <row r="48" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="I48" s="23"/>
+    </row>
+    <row r="49" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="I49" s="23"/>
+    </row>
+    <row r="50" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="I50" s="23"/>
+    </row>
+    <row r="51" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="I51" s="23"/>
+    </row>
+    <row r="52" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="I52" s="23"/>
+    </row>
+    <row r="53" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="I53" s="23"/>
+    </row>
+    <row r="54" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="I54" s="23"/>
+    </row>
+    <row r="55" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="I55" s="23"/>
+    </row>
+    <row r="56" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="I56" s="23"/>
+    </row>
+    <row r="57" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="I57" s="23"/>
+    </row>
+    <row r="58" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="I58" s="23"/>
+    </row>
+    <row r="59" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="I59" s="23"/>
+    </row>
+    <row r="60" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="I60" s="23"/>
+    </row>
+    <row r="61" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="I61" s="23"/>
+    </row>
+    <row r="62" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="I62" s="23"/>
+    </row>
+    <row r="63" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="I63" s="23"/>
+    </row>
+    <row r="64" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="I64" s="23"/>
+    </row>
+    <row r="65" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="I65" s="23"/>
+    </row>
+    <row r="66" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="I66" s="23"/>
+    </row>
+    <row r="67" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="I67" s="23"/>
+    </row>
+    <row r="68" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="I68" s="23"/>
+    </row>
+    <row r="69" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="I69" s="23"/>
+    </row>
+    <row r="70" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="I70" s="23"/>
+    </row>
+    <row r="71" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="I71" s="23"/>
+    </row>
+    <row r="72" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="I72" s="23"/>
+    </row>
+    <row r="73" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="I73" s="23"/>
+    </row>
+    <row r="74" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="I74" s="23"/>
+    </row>
+    <row r="75" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="I75" s="23"/>
+    </row>
+    <row r="76" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="I76" s="23"/>
+    </row>
+    <row r="77" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="I77" s="23"/>
+    </row>
+    <row r="78" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+      <c r="I78" s="23"/>
+    </row>
+    <row r="79" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="I79" s="23"/>
+    </row>
+    <row r="80" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="I80" s="23"/>
+    </row>
+    <row r="81" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="I81" s="23"/>
+    </row>
+    <row r="82" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
+      <c r="I82" s="23"/>
+    </row>
+    <row r="83" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
+      <c r="I83" s="23"/>
+    </row>
+    <row r="84" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="I84" s="23"/>
+    </row>
+    <row r="85" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
+      <c r="I85" s="23"/>
+    </row>
+    <row r="86" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
+      <c r="I86" s="23"/>
+    </row>
+    <row r="87" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
+      <c r="I87" s="23"/>
+    </row>
+    <row r="88" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
+      <c r="I88" s="23"/>
+    </row>
+    <row r="89" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+      <c r="I89" s="23"/>
+    </row>
+    <row r="90" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+      <c r="I90" s="23"/>
+    </row>
+    <row r="91" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="I91" s="23"/>
+    </row>
+    <row r="92" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F92" s="23"/>
+      <c r="G92" s="23"/>
+      <c r="I92" s="23"/>
+    </row>
+    <row r="93" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F93" s="23"/>
+      <c r="G93" s="23"/>
+      <c r="I93" s="23"/>
+    </row>
+    <row r="94" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F94" s="23"/>
+      <c r="G94" s="23"/>
+      <c r="I94" s="23"/>
+    </row>
+    <row r="95" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
+      <c r="I95" s="23"/>
+    </row>
+    <row r="96" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
+      <c r="I96" s="23"/>
+    </row>
+    <row r="97" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
+      <c r="I97" s="23"/>
+    </row>
+    <row r="98" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F98" s="23"/>
+      <c r="G98" s="23"/>
+      <c r="I98" s="23"/>
+    </row>
+    <row r="99" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F99" s="23"/>
+      <c r="G99" s="23"/>
+      <c r="I99" s="23"/>
+    </row>
+    <row r="100" spans="6:9" x14ac:dyDescent="0.5">
+      <c r="F100" s="23"/>
+      <c r="G100" s="23"/>
+      <c r="I100" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>